--- a/Divisão de tarefas.xlsx
+++ b/Divisão de tarefas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Tiago\Fea dev\curso-de-python-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43247D9-A195-4172-AC7F-FAAAA079484A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654E69E2-8CC8-49FA-8A01-13BA54430752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78F29A63-9460-4F3E-9CCA-0B2739324AB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Aula</t>
   </si>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>Bibliotecas, pip, numpy, pandas, series, dataframe, carregamento de dados (csv, xlsx, etc), data slice (loc, iloc, etc)</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>7?</t>
+  </si>
+  <si>
+    <t>Venv e ambiente virtual</t>
+  </si>
+  <si>
+    <t>Tema sugerido</t>
   </si>
 </sst>
 </file>
@@ -492,17 +516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5294F9FF-6A38-4A25-97C5-E55CE75FECD0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -524,17 +548,21 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -543,7 +571,9 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -552,7 +582,9 @@
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -561,7 +593,9 @@
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -572,6 +606,22 @@
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
